--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp10-Acvrl1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp10-Acvrl1.xlsx
@@ -534,22 +534,22 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.7487743333333333</v>
+        <v>0.3642143333333334</v>
       </c>
       <c r="H2">
-        <v>2.246323</v>
+        <v>1.092643</v>
       </c>
       <c r="I2">
-        <v>0.9588676743716499</v>
+        <v>0.4800482050304226</v>
       </c>
       <c r="J2">
-        <v>0.9588676743716499</v>
+        <v>0.4800482050304224</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>40.10475833333333</v>
+        <v>19.77408333333333</v>
       </c>
       <c r="N2">
-        <v>120.314275</v>
+        <v>59.32225</v>
       </c>
       <c r="O2">
-        <v>0.504709706355426</v>
+        <v>0.3380388258879848</v>
       </c>
       <c r="P2">
-        <v>0.5148319456493028</v>
+        <v>0.339186328349942</v>
       </c>
       <c r="Q2">
-        <v>30.02941368453611</v>
+        <v>7.202004578527778</v>
       </c>
       <c r="R2">
-        <v>270.264723160825</v>
+        <v>64.81804120675001</v>
       </c>
       <c r="S2">
-        <v>0.4839498223658257</v>
+        <v>0.1622749315981186</v>
       </c>
       <c r="T2">
-        <v>0.4936557104169786</v>
+        <v>0.1628257880952491</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.7487743333333333</v>
+        <v>0.3642143333333334</v>
       </c>
       <c r="H3">
-        <v>2.246323</v>
+        <v>1.092643</v>
       </c>
       <c r="I3">
-        <v>0.9588676743716499</v>
+        <v>0.4800482050304226</v>
       </c>
       <c r="J3">
-        <v>0.9588676743716499</v>
+        <v>0.4800482050304224</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>53.874554</v>
       </c>
       <c r="O3">
-        <v>0.2259998685057908</v>
+        <v>0.3069959581674471</v>
       </c>
       <c r="P3">
-        <v>0.2305324239938148</v>
+        <v>0.3080380828904952</v>
       </c>
       <c r="Q3">
-        <v>13.44662775166022</v>
+        <v>6.54062825624689</v>
       </c>
       <c r="R3">
-        <v>121.019649764942</v>
+        <v>58.86565430622201</v>
       </c>
       <c r="S3">
-        <v>0.2167039683224463</v>
+        <v>0.1473728586698776</v>
       </c>
       <c r="T3">
-        <v>0.2210500892622083</v>
+        <v>0.1478731287725947</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.7487743333333333</v>
+        <v>0.3642143333333334</v>
       </c>
       <c r="H4">
-        <v>2.246323</v>
+        <v>1.092643</v>
       </c>
       <c r="I4">
-        <v>0.9588676743716499</v>
+        <v>0.4800482050304226</v>
       </c>
       <c r="J4">
-        <v>0.9588676743716499</v>
+        <v>0.4800482050304224</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.51121033333333</v>
+        <v>12.46730333333333</v>
       </c>
       <c r="N4">
-        <v>31.533631</v>
+        <v>37.40191</v>
       </c>
       <c r="O4">
-        <v>0.1322813077860492</v>
+        <v>0.2131290998296268</v>
       </c>
       <c r="P4">
-        <v>0.1349342844073753</v>
+        <v>0.2138525852639604</v>
       </c>
       <c r="Q4">
-        <v>7.87052450986811</v>
+        <v>4.540770572014445</v>
       </c>
       <c r="R4">
-        <v>70.834720588813</v>
+        <v>40.86693514813</v>
       </c>
       <c r="S4">
-        <v>0.1268402699596494</v>
+        <v>0.1023122418129621</v>
       </c>
       <c r="T4">
-        <v>0.1293841234827028</v>
+        <v>0.1026595496970796</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.7487743333333333</v>
+        <v>0.3642143333333334</v>
       </c>
       <c r="H5">
-        <v>2.246323</v>
+        <v>1.092643</v>
       </c>
       <c r="I5">
-        <v>0.9588676743716499</v>
+        <v>0.4800482050304226</v>
       </c>
       <c r="J5">
-        <v>0.9588676743716499</v>
+        <v>0.4800482050304224</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.68691</v>
+        <v>0.593699</v>
       </c>
       <c r="N5">
-        <v>9.37382</v>
+        <v>1.187398</v>
       </c>
       <c r="O5">
-        <v>0.05898374826630448</v>
+        <v>0.01014931056513554</v>
       </c>
       <c r="P5">
-        <v>0.04011113385145983</v>
+        <v>0.006789175527058808</v>
       </c>
       <c r="Q5">
-        <v>3.509437910643333</v>
+        <v>0.2162336854856667</v>
       </c>
       <c r="R5">
-        <v>21.05662746386</v>
+        <v>1.297402112914</v>
       </c>
       <c r="S5">
-        <v>0.05655760952583421</v>
+        <v>0.004872158319089622</v>
       </c>
       <c r="T5">
-        <v>0.03846126963255925</v>
+        <v>0.003259131525401053</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.7487743333333333</v>
+        <v>0.3642143333333334</v>
       </c>
       <c r="H6">
-        <v>2.246323</v>
+        <v>1.092643</v>
       </c>
       <c r="I6">
-        <v>0.9588676743716499</v>
+        <v>0.4800482050304226</v>
       </c>
       <c r="J6">
-        <v>0.9588676743716499</v>
+        <v>0.4800482050304224</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.199977000000001</v>
+        <v>7.703215333333333</v>
       </c>
       <c r="N6">
-        <v>18.599931</v>
+        <v>23.109646</v>
       </c>
       <c r="O6">
-        <v>0.07802536908642958</v>
+        <v>0.1316868055498057</v>
       </c>
       <c r="P6">
-        <v>0.07959021209804724</v>
+        <v>0.1321338279685434</v>
       </c>
       <c r="Q6">
-        <v>4.642383644857</v>
+        <v>2.805621437153111</v>
       </c>
       <c r="R6">
-        <v>41.781452803713</v>
+        <v>25.250592934378</v>
       </c>
       <c r="S6">
-        <v>0.07481600419789436</v>
+        <v>0.06321601463037453</v>
       </c>
       <c r="T6">
-        <v>0.07631648157720092</v>
+        <v>0.06343060694009788</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.03212</v>
+        <v>0.3944893333333333</v>
       </c>
       <c r="H7">
-        <v>0.09636</v>
+        <v>1.183468</v>
       </c>
       <c r="I7">
-        <v>0.04113232562835006</v>
+        <v>0.5199517949695774</v>
       </c>
       <c r="J7">
-        <v>0.04113232562835006</v>
+        <v>0.5199517949695774</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>40.10475833333333</v>
+        <v>19.77408333333333</v>
       </c>
       <c r="N7">
-        <v>120.314275</v>
+        <v>59.32225</v>
       </c>
       <c r="O7">
-        <v>0.504709706355426</v>
+        <v>0.3380388258879848</v>
       </c>
       <c r="P7">
-        <v>0.5148319456493028</v>
+        <v>0.339186328349942</v>
       </c>
       <c r="Q7">
-        <v>1.288164837666667</v>
+        <v>7.800664951444443</v>
       </c>
       <c r="R7">
-        <v>11.593483539</v>
+        <v>70.205984563</v>
       </c>
       <c r="S7">
-        <v>0.02075988398960033</v>
+        <v>0.1757638942898662</v>
       </c>
       <c r="T7">
-        <v>0.02117623523232414</v>
+        <v>0.1763605402546928</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.03212</v>
+        <v>0.3944893333333333</v>
       </c>
       <c r="H8">
-        <v>0.09636</v>
+        <v>1.183468</v>
       </c>
       <c r="I8">
-        <v>0.04113232562835006</v>
+        <v>0.5199517949695774</v>
       </c>
       <c r="J8">
-        <v>0.04113232562835006</v>
+        <v>0.5199517949695774</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>53.874554</v>
       </c>
       <c r="O8">
-        <v>0.2259998685057908</v>
+        <v>0.3069959581674471</v>
       </c>
       <c r="P8">
-        <v>0.2305324239938148</v>
+        <v>0.3080380828904952</v>
       </c>
       <c r="Q8">
-        <v>0.5768168914933334</v>
+        <v>7.084312297030222</v>
       </c>
       <c r="R8">
-        <v>5.19135202344</v>
+        <v>63.758810673272</v>
       </c>
       <c r="S8">
-        <v>0.009295900183344481</v>
+        <v>0.1596230994975694</v>
       </c>
       <c r="T8">
-        <v>0.009482334731606449</v>
+        <v>0.1601649541179005</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.03212</v>
+        <v>0.3944893333333333</v>
       </c>
       <c r="H9">
-        <v>0.09636</v>
+        <v>1.183468</v>
       </c>
       <c r="I9">
-        <v>0.04113232562835006</v>
+        <v>0.5199517949695774</v>
       </c>
       <c r="J9">
-        <v>0.04113232562835006</v>
+        <v>0.5199517949695774</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.51121033333333</v>
+        <v>12.46730333333333</v>
       </c>
       <c r="N9">
-        <v>31.533631</v>
+        <v>37.40191</v>
       </c>
       <c r="O9">
-        <v>0.1322813077860492</v>
+        <v>0.2131290998296268</v>
       </c>
       <c r="P9">
-        <v>0.1349342844073753</v>
+        <v>0.2138525852639604</v>
       </c>
       <c r="Q9">
-        <v>0.3376200759066667</v>
+        <v>4.91821818043111</v>
       </c>
       <c r="R9">
-        <v>3.03858068316</v>
+        <v>44.26396362388</v>
       </c>
       <c r="S9">
-        <v>0.005441037826399773</v>
+        <v>0.1108168580166647</v>
       </c>
       <c r="T9">
-        <v>0.00555016092467256</v>
+        <v>0.1111930355668808</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.03212</v>
+        <v>0.3944893333333333</v>
       </c>
       <c r="H10">
-        <v>0.09636</v>
+        <v>1.183468</v>
       </c>
       <c r="I10">
-        <v>0.04113232562835006</v>
+        <v>0.5199517949695774</v>
       </c>
       <c r="J10">
-        <v>0.04113232562835006</v>
+        <v>0.5199517949695774</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.68691</v>
+        <v>0.593699</v>
       </c>
       <c r="N10">
-        <v>9.37382</v>
+        <v>1.187398</v>
       </c>
       <c r="O10">
-        <v>0.05898374826630448</v>
+        <v>0.01014931056513554</v>
       </c>
       <c r="P10">
-        <v>0.04011113385145983</v>
+        <v>0.006789175527058808</v>
       </c>
       <c r="Q10">
-        <v>0.1505435492</v>
+        <v>0.2342079227106666</v>
       </c>
       <c r="R10">
-        <v>0.9032612952000001</v>
+        <v>1.405247536264</v>
       </c>
       <c r="S10">
-        <v>0.002426138740470265</v>
+        <v>0.005277152246045923</v>
       </c>
       <c r="T10">
-        <v>0.001649864218900581</v>
+        <v>0.003530044001657754</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.03212</v>
+        <v>0.3944893333333333</v>
       </c>
       <c r="H11">
-        <v>0.09636</v>
+        <v>1.183468</v>
       </c>
       <c r="I11">
-        <v>0.04113232562835006</v>
+        <v>0.5199517949695774</v>
       </c>
       <c r="J11">
-        <v>0.04113232562835006</v>
+        <v>0.5199517949695774</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.199977000000001</v>
+        <v>7.703215333333333</v>
       </c>
       <c r="N11">
-        <v>18.599931</v>
+        <v>23.109646</v>
       </c>
       <c r="O11">
-        <v>0.07802536908642958</v>
+        <v>0.1316868055498057</v>
       </c>
       <c r="P11">
-        <v>0.07959021209804724</v>
+        <v>0.1321338279685434</v>
       </c>
       <c r="Q11">
-        <v>0.19914326124</v>
+        <v>3.038836281369777</v>
       </c>
       <c r="R11">
-        <v>1.79228935116</v>
+        <v>27.349526532328</v>
       </c>
       <c r="S11">
-        <v>0.00320936488853522</v>
+        <v>0.06847079091943122</v>
       </c>
       <c r="T11">
-        <v>0.003273730520846326</v>
+        <v>0.06870322102844548</v>
       </c>
     </row>
   </sheetData>
